--- a/src/main/resources/RegistrationTestData.xlsx
+++ b/src/main/resources/RegistrationTestData.xlsx
@@ -4,6 +4,7 @@
   <workbookPr/>
   <sheets>
     <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="Sheet2" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -11,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="31">
   <si>
     <t>Test No.</t>
   </si>
@@ -89,6 +90,21 @@
   </si>
   <si>
     <t>Jamdea369</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>nh</t>
+  </si>
+  <si>
+    <t>kh</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>h</t>
   </si>
 </sst>
 </file>
@@ -164,6 +180,10 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
   <a:themeElements>
@@ -502,4 +522,158 @@
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="3" max="3" width="13.88"/>
+    <col customWidth="1" min="4" max="4" width="28.5"/>
+    <col customWidth="1" min="6" max="6" width="21.13"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="G7" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="D11" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>